--- a/src/lr8/example4/example.xlsx
+++ b/src/lr8/example4/example.xlsx
@@ -32,7 +32,7 @@
     <t>Компьютер</t>
   </si>
   <si>
-    <t>Процессор: Intel Core i5, Оперативная память: 16 ГБ</t>
+    <t>Процессор: Intel Core i5, Оперативная память: 8 Гб</t>
   </si>
 </sst>
 </file>
